--- a/tables/Ch1-austickmicrobes.xlsx
+++ b/tables/Ch1-austickmicrobes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siobhon/Documents/Uni/PhD/Thesis-docs/thesis/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siobhon/Documents/Uni/PhD/Thesis-docs/PhD/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA35A6-70F0-6B4D-AF66-96C475D582D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BA902-FA07-6B42-B0FD-27B12B6CE42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="660" windowWidth="27560" windowHeight="15500" xr2:uid="{3F5E57B6-4799-694D-AB9A-271590BD3E2C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3F5E57B6-4799-694D-AB9A-271590BD3E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="423">
   <si>
     <t>Tick species</t>
   </si>
@@ -1503,9 +1503,6 @@
     <t>(b)</t>
   </si>
   <si>
-    <t>Vilcins et al. 2009a</t>
-  </si>
-  <si>
     <t>Chalada et al. 2018</t>
   </si>
   <si>
@@ -1530,9 +1527,6 @@
     <t>Gofton et al. 2018</t>
   </si>
   <si>
-    <t>Egan et al. 2020</t>
-  </si>
-  <si>
     <t>St. George, 1991</t>
   </si>
   <si>
@@ -1545,9 +1539,6 @@
     <t>Izzard 2010</t>
   </si>
   <si>
-    <t>Vilcins et al. 2009b</t>
-  </si>
-  <si>
     <t>Vilcins et al. 2008</t>
   </si>
   <si>
@@ -1560,18 +1551,12 @@
     <t>Gofton et al. 2017; Egan et al. 2020a</t>
   </si>
   <si>
-    <t>Gofton et al. 2016; Egan et al. 2020; Greay et al. 2022</t>
-  </si>
-  <si>
     <t>Petney et al. 2004</t>
   </si>
   <si>
     <t>Callow and Hoyte 1961</t>
   </si>
   <si>
-    <t>Hammer et al. 2015; Greay et al. 2018; Loh et al. 2018b; Marendy et al. 2019; Emery et al. 2021; Lakew et al. 2021</t>
-  </si>
-  <si>
     <t>Owen et al. 2006b; Li et al. 2010; Sentausa et al. 2013; Abdad et al. 2017; Chalada et al. 2018</t>
   </si>
   <si>
@@ -1608,9 +1593,6 @@
     <t>O'Brien et al. 2018</t>
   </si>
   <si>
-    <t>Lane et al. 2005; Unsworth et al. 2007</t>
-  </si>
-  <si>
     <t>Vilcins et al. 2009a; Chalada et al. 2018</t>
   </si>
   <si>
@@ -1624,6 +1606,48 @@
   </si>
   <si>
     <t>Upolu virus (Thogotovirus)</t>
+  </si>
+  <si>
+    <t>Egan et al. 2020a</t>
+  </si>
+  <si>
+    <t>Gofton et al. 2016; Egan et al. 2020a; Greay et al. 2022</t>
+  </si>
+  <si>
+    <t>Lane et al. 2005; Unsworth et al. 2007a</t>
+  </si>
+  <si>
+    <t>Vilcins et al. 2009c</t>
+  </si>
+  <si>
+    <t>Vilcins et al. 2009d</t>
+  </si>
+  <si>
+    <t>Vilcins et al 2009c</t>
+  </si>
+  <si>
+    <t>Vilcins et al 2009e</t>
+  </si>
+  <si>
+    <t>Greay et al. 2018c</t>
+  </si>
+  <si>
+    <t>Greay et al. 2018b</t>
+  </si>
+  <si>
+    <t>Jefferies et al. 2003; Greay et al. 2018b</t>
+  </si>
+  <si>
+    <t>Hammer et al. 2015; Greay et al. 2018b; Loh et al. 2018a; Marendy et al. 2019; Emery et al. 2021; Lakew et al. 2021</t>
+  </si>
+  <si>
+    <t>Barbosa et al. 2017b</t>
+  </si>
+  <si>
+    <t>Austen et al. 2011; Barbosa et al. 2017b</t>
+  </si>
+  <si>
+    <t>Krige et al. 2021</t>
   </si>
 </sst>
 </file>
@@ -2057,17 +2081,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96E089-1365-8248-A283-2AF976655E18}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="22.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="5" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
@@ -2109,7 +2133,7 @@
         <v>89</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2129,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2149,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2169,7 +2193,7 @@
         <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2189,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2209,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2229,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2249,7 +2273,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2269,7 +2293,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2289,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2309,7 +2333,7 @@
         <v>92</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2329,7 +2353,7 @@
         <v>93</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2349,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2389,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2409,7 +2433,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2429,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2449,7 +2473,7 @@
         <v>72</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2469,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2489,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2509,7 +2533,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2529,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2549,7 +2573,7 @@
         <v>94</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2569,7 +2593,7 @@
         <v>320</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2589,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2609,7 +2633,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2649,7 +2673,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2669,7 +2693,7 @@
         <v>62</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2689,7 +2713,7 @@
         <v>63</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2709,7 +2733,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2729,7 +2753,7 @@
         <v>65</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2749,7 +2773,7 @@
         <v>61</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2769,7 +2793,7 @@
         <v>61</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2789,7 +2813,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2809,7 +2833,7 @@
         <v>122</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2829,7 +2853,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2849,7 +2873,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2869,7 +2893,7 @@
         <v>61</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2889,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2949,7 +2973,7 @@
         <v>368</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2969,7 +2993,7 @@
         <v>368</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2989,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3009,12 +3033,12 @@
         <v>368</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>171</v>
@@ -3029,7 +3053,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3049,7 +3073,7 @@
         <v>368</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3069,7 +3093,7 @@
         <v>62</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3089,7 +3113,7 @@
         <v>369</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3109,7 +3133,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3129,7 +3153,7 @@
         <v>370</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3149,7 +3173,7 @@
         <v>368</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3169,7 +3193,7 @@
         <v>368</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3189,7 +3213,7 @@
         <v>368</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3209,7 +3233,7 @@
         <v>371</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3229,7 +3253,7 @@
         <v>61</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3629,7 +3653,7 @@
         <v>289</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3649,7 +3673,7 @@
         <v>9</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3669,7 +3693,7 @@
         <v>61</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3709,7 +3733,7 @@
         <v>122</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3769,7 +3793,7 @@
         <v>19</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3789,7 +3813,7 @@
         <v>15</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3809,7 +3833,7 @@
         <v>122</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3849,7 +3873,7 @@
         <v>19</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3869,7 +3893,7 @@
         <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3889,7 +3913,7 @@
         <v>19</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3909,7 +3933,7 @@
         <v>62</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3989,7 +4013,7 @@
         <v>19</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4009,7 +4033,7 @@
         <v>9</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>279</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4029,7 +4053,7 @@
         <v>122</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4049,7 +4073,7 @@
         <v>64</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>301</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4069,7 +4093,7 @@
         <v>64</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>302</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4089,7 +4113,7 @@
         <v>19</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4129,7 +4153,7 @@
         <v>61</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>275</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4149,7 +4173,7 @@
         <v>61</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4169,7 +4193,7 @@
         <v>15</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>282</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4189,7 +4213,7 @@
         <v>61</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>275</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:6">

--- a/tables/Ch1-austickmicrobes.xlsx
+++ b/tables/Ch1-austickmicrobes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siobhon/Documents/Uni/PhD/Thesis-docs/PhD/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BA902-FA07-6B42-B0FD-27B12B6CE42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97559F1-3869-A24B-A1BA-A89C4BA0C584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3F5E57B6-4799-694D-AB9A-271590BD3E2C}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="21340" windowHeight="17540" xr2:uid="{3F5E57B6-4799-694D-AB9A-271590BD3E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="434">
   <si>
     <t>Tick species</t>
   </si>
@@ -1648,6 +1648,39 @@
   </si>
   <si>
     <t>Krige et al. 2021</t>
+  </si>
+  <si>
+    <t>Bt. concolor, Ha. Humerosa</t>
+  </si>
+  <si>
+    <t>Am. Albolimbatum</t>
+  </si>
+  <si>
+    <t>Angus 1996; Jonsson et al. 2008</t>
+  </si>
+  <si>
+    <t>NSW, QLD, WA</t>
+  </si>
+  <si>
+    <t>Babesia bigemina (a)</t>
+  </si>
+  <si>
+    <t>Babesia bovis (a)</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii (a)</t>
+  </si>
+  <si>
+    <t>‘Ca. Ehrlichia occidentalis’</t>
+  </si>
+  <si>
+    <t>‘Ca. Ehrlichia ornithorhynchi’</t>
+  </si>
+  <si>
+    <t>Ehrlichia sp.</t>
   </si>
 </sst>
 </file>
@@ -2079,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA96E089-1365-8248-A283-2AF976655E18}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2091,7 +2124,7 @@
     <col min="2" max="2" width="18.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="25" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="9" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="5" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
@@ -2357,7 +2390,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2381,7 +2414,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>424</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>109</v>
@@ -2398,7 +2431,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -2418,7 +2451,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>83</v>
@@ -2438,7 +2471,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>84</v>
@@ -2458,7 +2491,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>337</v>
+        <v>430</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>85</v>
@@ -2478,7 +2511,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>83</v>
@@ -2498,7 +2531,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>86</v>
@@ -2518,7 +2551,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>39</v>
@@ -2538,7 +2571,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>83</v>
@@ -2658,13 +2691,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>431</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>6</v>
@@ -2678,7 +2711,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>432</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
@@ -2704,7 +2737,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>6</v>
@@ -2718,7 +2751,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>433</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>57</v>
@@ -2881,7 +2914,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>246</v>
+        <v>423</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>350</v>
@@ -3637,114 +3670,114 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="8" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="D81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="5" t="s">
+    <row r="82" spans="1:6">
+      <c r="A82" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="D82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F82" s="5" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>6</v>
@@ -3757,148 +3790,148 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="5" t="s">
+      <c r="B85" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B88" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="D88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="8" t="s">
+    <row r="89" spans="1:6">
+      <c r="A89" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B89" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="5" t="s">
+      <c r="D89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="8" t="s">
+    <row r="90" spans="1:6">
+      <c r="A90" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>417</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>37</v>
@@ -3917,74 +3950,74 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="5" t="s">
-        <v>290</v>
+      <c r="A92" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>259</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="8" t="s">
-        <v>261</v>
+      <c r="A95" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>6</v>
@@ -3998,102 +4031,102 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>417</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>416</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>359</v>
+      <c r="A99" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>361</v>
+      <c r="A100" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4101,70 +4134,70 @@
         <v>344</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>276</v>
+      <c r="A102" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>42</v>
+      <c r="A103" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>46</v>
+        <v>362</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>4</v>
@@ -4173,32 +4206,32 @@
         <v>61</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>281</v>
+        <v>4</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>37</v>
@@ -4213,26 +4246,66 @@
         <v>61</v>
       </c>
       <c r="F106" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="5" t="s">
+    <row r="109" spans="1:6">
+      <c r="A109" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="D109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F109" s="5" t="s">
         <v>306</v>
       </c>
     </row>
